--- a/Import/pyPlotList/XY plot.xlsx
+++ b/Import/pyPlotList/XY plot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Filename</t>
   </si>
@@ -84,26 +84,38 @@
     <t>cindex</t>
   </si>
   <si>
-    <t>XY1</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>SumOdd</t>
+    <t>p.%stored</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>v.puVmagAngle</t>
+  </si>
+  <si>
+    <t>Index=0</t>
   </si>
   <si>
     <t>SumEven</t>
   </si>
   <si>
-    <t>p.%stored</t>
+    <t>XY4</t>
+  </si>
+  <si>
+    <t>PVSystem.oh_262645</t>
+  </si>
+  <si>
+    <t>node_11021960</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +123,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="-0.249977111117893"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,16 +157,246 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -161,16 +416,16 @@
   <autoFilter ref="A2:R3" xr:uid="{E51A6AD2-D2CF-41DC-BE16-C1F48854AB7E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{FA0ECEFD-A28F-49EF-845A-6B150D944B51}" name="Filename"/>
-    <tableColumn id="2" xr3:uid="{6CEFEA75-C4D8-4D27-84B0-EE7AAEA74882}" name="yObjName"/>
-    <tableColumn id="3" xr3:uid="{50A30111-9213-4A90-88CC-2FC76364B656}" name="yObjectType"/>
-    <tableColumn id="4" xr3:uid="{EB677F9D-F517-4477-BE2E-D3EE2A1E46B5}" name="yProperty"/>
-    <tableColumn id="5" xr3:uid="{4BFA853B-800C-4CDC-9580-C82E93772B1F}" name="yScaler"/>
-    <tableColumn id="6" xr3:uid="{6B27D308-A194-4EBE-99BC-F3E2347EB401}" name="yindex" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{61D13C0A-7A7F-4109-8AF6-31BC31F8F3B8}" name="xObjName"/>
-    <tableColumn id="8" xr3:uid="{81A86C28-101B-4727-8595-81EFC0B2415C}" name="xObjectType"/>
-    <tableColumn id="9" xr3:uid="{2DF4B435-03AB-4161-A544-5EABA781CF0E}" name="xProperty"/>
-    <tableColumn id="10" xr3:uid="{A7BC428F-9666-4687-8687-5E0E7257FEBC}" name="xScaler"/>
-    <tableColumn id="11" xr3:uid="{890490C2-F1E7-4D20-827A-D07F1EE4022E}" name="xindex"/>
+    <tableColumn id="2" xr3:uid="{6CEFEA75-C4D8-4D27-84B0-EE7AAEA74882}" name="yObjName" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{50A30111-9213-4A90-88CC-2FC76364B656}" name="yObjectType" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{EB677F9D-F517-4477-BE2E-D3EE2A1E46B5}" name="yProperty" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4BFA853B-800C-4CDC-9580-C82E93772B1F}" name="yScaler" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{6B27D308-A194-4EBE-99BC-F3E2347EB401}" name="yindex" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{61D13C0A-7A7F-4109-8AF6-31BC31F8F3B8}" name="xObjName" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{81A86C28-101B-4727-8595-81EFC0B2415C}" name="xObjectType" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{2DF4B435-03AB-4161-A544-5EABA781CF0E}" name="xProperty" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A7BC428F-9666-4687-8687-5E0E7257FEBC}" name="xScaler" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{890490C2-F1E7-4D20-827A-D07F1EE4022E}" name="xindex" dataDxfId="0"/>
     <tableColumn id="18" xr3:uid="{3E2CEE0E-8802-4EE8-9680-8ECF96A04EF3}" name="cObjName"/>
     <tableColumn id="17" xr3:uid="{FA134F57-5DA4-46F9-AA15-6543053CA814}" name="cObjectType"/>
     <tableColumn id="16" xr3:uid="{ADC66C63-E9B9-483B-940E-7D56BBD8CB16}" name="cProperty"/>
@@ -449,32 +704,32 @@
   <dimension ref="A2:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -530,39 +785,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L3" t="s">
         <v>6</v>
@@ -571,13 +826,13 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3">
         <v>800</v>
@@ -588,8 +843,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Import/pyPlotList/XY plot.xlsx
+++ b/Import/pyPlotList/XY plot.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
@@ -99,16 +99,22 @@
     <t>Index=0</t>
   </si>
   <si>
+    <t>SumOdd</t>
+  </si>
+  <si>
     <t>SumEven</t>
   </si>
   <si>
+    <t>XY3</t>
+  </si>
+  <si>
     <t>XY4</t>
   </si>
   <si>
-    <t>PVSystem.oh_262645</t>
-  </si>
-  <si>
-    <t>node_11021960</t>
+    <t>PVSystem.bb_258064_1_5</t>
+  </si>
+  <si>
+    <t>dev_258183_131</t>
   </si>
 </sst>
 </file>
@@ -412,8 +418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D25EA5C-4385-4958-AB85-FDD0D1120E84}" name="Table1" displayName="Table1" ref="A2:R3" totalsRowShown="0">
-  <autoFilter ref="A2:R3" xr:uid="{E51A6AD2-D2CF-41DC-BE16-C1F48854AB7E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D25EA5C-4385-4958-AB85-FDD0D1120E84}" name="Table1" displayName="Table1" ref="A2:R4" totalsRowShown="0">
+  <autoFilter ref="A2:R4" xr:uid="{E51A6AD2-D2CF-41DC-BE16-C1F48854AB7E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{FA0ECEFD-A28F-49EF-845A-6B150D944B51}" name="Filename"/>
     <tableColumn id="2" xr3:uid="{6CEFEA75-C4D8-4D27-84B0-EE7AAEA74882}" name="yObjName" dataDxfId="9"/>
@@ -701,35 +707,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R3"/>
+  <dimension ref="A2:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -785,12 +791,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -805,19 +811,19 @@
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L3" t="s">
         <v>6</v>
@@ -838,6 +844,62 @@
         <v>800</v>
       </c>
       <c r="R3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4">
+        <v>800</v>
+      </c>
+      <c r="R4">
         <v>800</v>
       </c>
     </row>

--- a/Import/pyPlotList/XY plot.xlsx
+++ b/Import/pyPlotList/XY plot.xlsx
@@ -111,10 +111,10 @@
     <t>XY4</t>
   </si>
   <si>
-    <t>PVSystem.bb_258064_1_5</t>
-  </si>
-  <si>
-    <t>dev_258183_131</t>
+    <t>PVSystem.oh_263163_0_1</t>
+  </si>
+  <si>
+    <t>dev_263265_0_1</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
   <dimension ref="A2:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
